--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_________________________PythonProject\ST-EVCDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BB7973-E20D-4627-8681-7A2CC77BCBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936CC8B0-6AAE-4477-9DF5-749EBCDE5618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>PAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,14 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1437,17 +1430,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
@@ -1455,89 +1447,73 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>8.6199999999999992</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>46.8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>43.62</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>6.08</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>7.97</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>40.700000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>42.47</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>5.92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>4.38</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>13.17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>16.27</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>2.27</v>
       </c>
     </row>
@@ -1796,11 +1772,6 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_________________________PythonProject\ST-EVCDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936CC8B0-6AAE-4477-9DF5-749EBCDE5618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7416A9-1E6B-4D4C-B47E-33D61E8400DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="626" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="30min" sheetId="1" r:id="rId1"/>
-    <sheet name="15min" sheetId="2" r:id="rId2"/>
-    <sheet name="45min" sheetId="3" r:id="rId3"/>
+    <sheet name="zone42" sheetId="5" r:id="rId1"/>
+    <sheet name="30min" sheetId="1" r:id="rId2"/>
+    <sheet name="60min" sheetId="4" r:id="rId3"/>
+    <sheet name="15min" sheetId="2" r:id="rId4"/>
+    <sheet name="45min" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +117,71 @@
   </si>
   <si>
     <t>ChatEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM60min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAG15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAG30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAG45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAG60min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatEV15min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatEV30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatEV45min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatEV60min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,11 +249,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,10 +1485,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3DAF-3846-47F5-A121-0221C6ACF96F}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1.4681726000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.12116817100000001</v>
+      </c>
+      <c r="D6">
+        <v>0.39348560700000001</v>
+      </c>
+      <c r="E6">
+        <v>0.95338167799999995</v>
+      </c>
+      <c r="F6">
+        <v>0.10298618399999999</v>
+      </c>
+      <c r="G6">
+        <v>0.14422713700000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>7.2950519999999998E-3</v>
+      </c>
+      <c r="C7">
+        <v>8.5411077000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.45452839</v>
+      </c>
+      <c r="E7">
+        <v>0.43746706600000002</v>
+      </c>
+      <c r="F7">
+        <v>6.1012254000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>7.3536581000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1.3037998E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.11418405399999999</v>
+      </c>
+      <c r="D9">
+        <v>0.38073158699999998</v>
+      </c>
+      <c r="E9">
+        <v>0.89729040900000001</v>
+      </c>
+      <c r="F9">
+        <v>9.6933345000000004E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.24040750299999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>7.5649769999999996E-3</v>
+      </c>
+      <c r="C10">
+        <v>8.6976879000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.45936487199999998</v>
+      </c>
+      <c r="E10">
+        <v>0.44354566499999998</v>
+      </c>
+      <c r="F10">
+        <v>6.1838269000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>4.6643958999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.22612396800156E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.11073048216284199</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.37419856893732401</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.87187754985529897</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.4093282162408601E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.28454053009093999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.6444285710356502E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8.74324228821073E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.472679472982654</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.44509617517251798</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.20342974906129E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5.0633660210798903E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1782,7 +2179,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FBCD00-9795-4DE4-A5BD-46E85D266C7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2761B4F1-4E2E-43E5-995E-479AF1E57531}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1801,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8DBD5E-307C-4E12-968A-3777FA33FC5F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_________________________PythonProject\ST-EVCDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7416A9-1E6B-4D4C-B47E-33D61E8400DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44AAD59-26A5-448A-BDE6-5D800BC9A91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="626" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3DAF-3846-47F5-A121-0221C6ACF96F}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1526,11 +1526,47 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="B3">
+        <v>1.7350305999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.13172056100000001</v>
+      </c>
+      <c r="D3">
+        <v>0.39980189799999999</v>
+      </c>
+      <c r="E3">
+        <v>1.033135602</v>
+      </c>
+      <c r="F3">
+        <v>0.11167191</v>
+      </c>
+      <c r="G3">
+        <v>-1.0555362E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
+      <c r="B4">
+        <v>7.2053450000000002E-3</v>
+      </c>
+      <c r="C4">
+        <v>8.4884306000000007E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.45568833800000003</v>
+      </c>
+      <c r="E4">
+        <v>0.43619785500000002</v>
+      </c>
+      <c r="F4">
+        <v>6.0859354999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.9159708000000003E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1714,11 +1750,47 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
+      <c r="B18">
+        <v>3.6641590000000002E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.0532295999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.235964329</v>
+      </c>
+      <c r="E18">
+        <v>0.40151366599999999</v>
+      </c>
+      <c r="F18">
+        <v>4.3399722000000002E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.78658386300000005</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
+      <c r="B19">
+        <v>8.4416099999999996E-4</v>
+      </c>
+      <c r="C19">
+        <v>2.9054454E-2</v>
+      </c>
+      <c r="D19">
+        <v>8.1495006999999994E-2</v>
+      </c>
+      <c r="E19">
+        <v>9.7780385999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.364255E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.91923374000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1729,11 +1801,47 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
+      <c r="B21">
+        <v>6.5458060000000004E-3</v>
+      </c>
+      <c r="C21">
+        <v>8.0906157000000006E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.336534412</v>
+      </c>
+      <c r="E21">
+        <v>0.55253596400000005</v>
+      </c>
+      <c r="F21">
+        <v>5.9686032999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.61845607199999997</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="B22">
+        <v>1.919385E-3</v>
+      </c>
+      <c r="C22">
+        <v>4.3810784999999998E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.131657476</v>
+      </c>
+      <c r="E22">
+        <v>0.16270310299999999</v>
+      </c>
+      <c r="F22">
+        <v>2.2691726999999998E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.82872697100000003</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1744,11 +1852,47 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
+      <c r="B24">
+        <v>7.0352399999999999E-3</v>
+      </c>
+      <c r="C24">
+        <v>8.3876336999999995E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.341355821</v>
+      </c>
+      <c r="E24">
+        <v>0.58097901699999999</v>
+      </c>
+      <c r="F24">
+        <v>6.2762555999999997E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.59012761199999997</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="B25">
+        <v>2.8815149999999999E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.3679748999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.17009095900000001</v>
+      </c>
+      <c r="E25">
+        <v>0.20769047400000001</v>
+      </c>
+      <c r="F25">
+        <v>2.89558E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.75603865699999995</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1759,10 +1903,46 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27">
+        <v>7.5171709999999996E-3</v>
+      </c>
+      <c r="C27">
+        <v>8.6701617999999994E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.348880305</v>
+      </c>
+      <c r="E27">
+        <v>0.61237867400000001</v>
+      </c>
+      <c r="F27">
+        <v>6.6088087000000004E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.56136320299999998</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3.9179490000000004E-3</v>
+      </c>
+      <c r="C28">
+        <v>6.2593522999999998E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.222043554</v>
+      </c>
+      <c r="E28">
+        <v>0.253515241</v>
+      </c>
+      <c r="F28">
+        <v>3.5333126999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.66974637800000003</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
